--- a/Excel/ABIS_U2_unit1.xlsx
+++ b/Excel/ABIS_U2_unit1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excel-Files\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7D7A59-FADC-488D-94AC-FF1159AE3623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7924F8B2-6CA7-41AD-A9B0-C43AF76D38CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{3F9CAC95-6A7B-465F-8F4E-259BE180575F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
     <t>ADDRESS  - ABIS CHAVELI, village  Chaweli ,Post Khaprikhurd Dist.Rajnandgaon , Pin code-491441 (Chhattisgarh)</t>
   </si>
   <si>
-    <t>UNIT-2  REPORT</t>
+    <t>UNIT-1  REPORT</t>
   </si>
 </sst>
 </file>
